--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
@@ -55,189 +58,180 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>3</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>pieces</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -247,97 +241,91 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>birthday</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cute</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cute</t>
   </si>
   <si>
     <t>play</t>
@@ -701,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -788,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -812,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -820,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,31 +826,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.71875</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,16 +929,16 @@
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6935483870967742</v>
+        <v>0.703125</v>
       </c>
       <c r="C7">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1012,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1020,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6842105263157895</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1070,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6486486486486487</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1112,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1120,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6296296296296297</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1138,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10">
-        <v>0.660377358490566</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6285714285714286</v>
+        <v>0.5878378378378378</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K11">
-        <v>0.5466284074605452</v>
+        <v>0.5538020086083214</v>
       </c>
       <c r="L11">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M11">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1212,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6285714285714286</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1238,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12">
-        <v>0.5362318840579711</v>
+        <v>0.529045643153527</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1262,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6206896551724138</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1288,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>0.4896265560165975</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L13">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1312,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>246</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1320,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5882352941176471</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14">
-        <v>0.4426229508196721</v>
+        <v>0.4401639344262295</v>
       </c>
       <c r="L14">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M14">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5636363636363636</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1388,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K15">
-        <v>0.3792048929663608</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>203</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5631067961165048</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1438,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16">
-        <v>0.325</v>
+        <v>0.3363914373088685</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1462,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>81</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5476190476190477</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1488,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17">
-        <v>0.3207547169811321</v>
+        <v>0.325</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1520,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5416666666666666</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1538,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>0.3174603174603174</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1570,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4898550724637681</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>0.3072289156626506</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1620,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4814814814814815</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K20">
         <v>0.2542372881355932</v>
@@ -1670,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4736842105263158</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1688,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K21">
-        <v>0.2063492063492063</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1712,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1720,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4096385542168675</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22">
-        <v>0.2027972027972028</v>
+        <v>0.1875</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1762,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,37 +1758,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4081632653061225</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>20</v>
       </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>29</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K23">
-        <v>0.1935483870967742</v>
+        <v>0.184</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1812,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1820,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4015748031496063</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K24">
-        <v>0.1875</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>104</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,7 +1858,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3968253968253968</v>
+        <v>0.390625</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -1888,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K25">
-        <v>0.1839080459770115</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>71</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3953488372093023</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1938,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>0.16</v>
+        <v>0.1577563540753725</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1962,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>105</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1970,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.390625</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K27">
-        <v>0.1507449605609115</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L27">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2012,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>969</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,13 +2008,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3789473684210526</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>0.144578313253012</v>
+        <v>0.08635097493036212</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2062,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>213</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3703703703703703</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K29">
-        <v>0.1282051282051282</v>
+        <v>0.07754010695187166</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2112,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>102</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,13 +2108,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3696682464454976</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C30">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2138,31 +2126,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K30">
-        <v>0.08512020792722547</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L30">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1408</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2158,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3671875</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C31">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,31 +2176,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K31">
-        <v>0.06963788300835655</v>
+        <v>0.06957087126137841</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>334</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2208,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3650793650793651</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,45 +2226,45 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K32">
-        <v>0.06149732620320856</v>
+        <v>0.04394141145139813</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3483146067415731</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2288,45 +2276,21 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>58</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33">
-        <v>0.05836575875486381</v>
-      </c>
-      <c r="L33">
-        <v>15</v>
-      </c>
-      <c r="M33">
-        <v>15</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3118811881188119</v>
+        <v>0.3359375</v>
       </c>
       <c r="C34">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2338,45 +2302,21 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>139</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34">
-        <v>0.04527296937416778</v>
-      </c>
-      <c r="L34">
-        <v>34</v>
-      </c>
-      <c r="M34">
-        <v>35</v>
-      </c>
-      <c r="N34">
-        <v>0.97</v>
-      </c>
-      <c r="O34">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2909090909090909</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2388,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2777777777777778</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2414,21 +2354,21 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.25</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2440,21 +2380,21 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2371134020618557</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2466,21 +2406,21 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2318840579710145</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2492,47 +2432,47 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2191780821917808</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1965811965811966</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2544,21 +2484,21 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.19</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2570,21 +2510,21 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1836734693877551</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2596,21 +2536,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1835443037974684</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C44">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2622,21 +2562,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1739130434782609</v>
+        <v>0.173469387755102</v>
       </c>
       <c r="C45">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2648,47 +2588,47 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.172106824925816</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C46">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1666666666666667</v>
+        <v>0.1646884272997033</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2700,21 +2640,21 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1464968152866242</v>
+        <v>0.1613924050632911</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2726,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>134</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2734,13 +2674,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1440677966101695</v>
+        <v>0.1613924050632911</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2752,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>101</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2760,13 +2700,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1436781609195402</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2778,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>298</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2786,13 +2726,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1329113924050633</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2804,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>274</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2812,13 +2752,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1328125</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2830,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2838,13 +2778,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1314285714285714</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2856,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>152</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2864,13 +2804,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1261682242990654</v>
+        <v>0.125</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2882,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2890,25 +2830,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.118942731277533</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D55">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>400</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2919,10 +2859,10 @@
         <v>0.1142857142857143</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2934,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2942,13 +2882,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1123595505617977</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2960,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>237</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2968,13 +2908,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1099476439790576</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2986,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>170</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2994,25 +2934,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1048387096774194</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3020,13 +2960,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1041666666666667</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3038,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3046,25 +2986,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09625668449197861</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>169</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3072,25 +3012,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.09289617486338798</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3098,25 +3038,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.06575342465753424</v>
+        <v>0.06473214285714286</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>341</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3124,7 +3064,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.06197183098591549</v>
+        <v>0.06027397260273973</v>
       </c>
       <c r="C64">
         <v>22</v>
@@ -3142,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3150,25 +3090,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06013363028953229</v>
+        <v>0.05950413223140496</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3176,25 +3116,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05766062602965404</v>
+        <v>0.05594405594405594</v>
       </c>
       <c r="C66">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E66">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F66">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>572</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3202,25 +3142,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0514018691588785</v>
+        <v>0.04695431472081218</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D67">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E67">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="F67">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>406</v>
+        <v>751</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3228,77 +3168,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04761904761904762</v>
+        <v>0.03369065849923431</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E68">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F68">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.04689480354879594</v>
-      </c>
-      <c r="C69">
-        <v>37</v>
-      </c>
-      <c r="D69">
-        <v>42</v>
-      </c>
-      <c r="E69">
-        <v>0.12</v>
-      </c>
-      <c r="F69">
-        <v>0.88</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.03981623277182236</v>
-      </c>
-      <c r="C70">
-        <v>26</v>
-      </c>
-      <c r="D70">
-        <v>28</v>
-      </c>
-      <c r="E70">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F70">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
